--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220525_110301.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220525_110301.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>MBC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>BLUEVINYL</t>
@@ -1928,7 +1925,7 @@
         <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H30" t="s">
         <v>234</v>
@@ -2058,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H35" t="s">
         <v>234</v>
@@ -2084,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H36" t="s">
         <v>234</v>
@@ -2110,7 +2107,7 @@
         <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H37" t="s">
         <v>234</v>
@@ -2162,7 +2159,7 @@
         <v>182</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s">
         <v>234</v>
@@ -2188,7 +2185,7 @@
         <v>183</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" t="s">
         <v>234</v>
@@ -2214,7 +2211,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H41" t="s">
         <v>234</v>
@@ -2240,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H42" t="s">
         <v>234</v>
@@ -2292,7 +2289,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
         <v>234</v>
@@ -2318,7 +2315,7 @@
         <v>184</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H45" t="s">
         <v>234</v>
@@ -2344,7 +2341,7 @@
         <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H46" t="s">
         <v>234</v>
@@ -2370,7 +2367,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
         <v>234</v>
@@ -2422,7 +2419,7 @@
         <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H49" t="s">
         <v>234</v>
@@ -2448,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
         <v>234</v>
@@ -2500,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H52" t="s">
         <v>234</v>
@@ -2526,7 +2523,7 @@
         <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H53" t="s">
         <v>234</v>
@@ -2604,10 +2601,10 @@
         <v>190</v>
       </c>
       <c r="G56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2656,7 +2653,7 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H58" t="s">
         <v>234</v>
@@ -2708,7 +2705,7 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H60" t="s">
         <v>234</v>
@@ -2734,7 +2731,7 @@
         <v>192</v>
       </c>
       <c r="G61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H61" t="s">
         <v>234</v>
@@ -2760,10 +2757,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2786,7 +2783,7 @@
         <v>193</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H63" t="s">
         <v>234</v>
@@ -2812,7 +2809,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H64" t="s">
         <v>234</v>
@@ -2838,7 +2835,7 @@
         <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H65" t="s">
         <v>234</v>
@@ -2890,7 +2887,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H67" t="s">
         <v>234</v>
@@ -2916,7 +2913,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H68" t="s">
         <v>234</v>
@@ -2968,7 +2965,7 @@
         <v>193</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
         <v>234</v>
@@ -3020,7 +3017,7 @@
         <v>198</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H72" t="s">
         <v>234</v>
@@ -3046,7 +3043,7 @@
         <v>199</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H73" t="s">
         <v>234</v>
@@ -3072,7 +3069,7 @@
         <v>200</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
         <v>234</v>
@@ -3098,7 +3095,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H75" t="s">
         <v>234</v>
@@ -3124,7 +3121,7 @@
         <v>201</v>
       </c>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H76" t="s">
         <v>234</v>
@@ -3150,7 +3147,7 @@
         <v>202</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H77" t="s">
         <v>234</v>
@@ -3176,7 +3173,7 @@
         <v>203</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H78" t="s">
         <v>234</v>
@@ -3254,7 +3251,7 @@
         <v>205</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
         <v>234</v>
@@ -3280,7 +3277,7 @@
         <v>206</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H82" t="s">
         <v>234</v>
@@ -3306,7 +3303,7 @@
         <v>207</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H83" t="s">
         <v>234</v>
@@ -3332,7 +3329,7 @@
         <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H84" t="s">
         <v>234</v>
@@ -3384,10 +3381,10 @@
         <v>210</v>
       </c>
       <c r="G86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3410,7 +3407,7 @@
         <v>193</v>
       </c>
       <c r="G87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H87" t="s">
         <v>234</v>
@@ -3462,7 +3459,7 @@
         <v>212</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H89" t="s">
         <v>234</v>
@@ -3514,7 +3511,7 @@
         <v>213</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H91" t="s">
         <v>234</v>
@@ -3540,7 +3537,7 @@
         <v>214</v>
       </c>
       <c r="G92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H92" t="s">
         <v>234</v>
@@ -3566,7 +3563,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H93" t="s">
         <v>234</v>
@@ -3592,7 +3589,7 @@
         <v>215</v>
       </c>
       <c r="G94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H94" t="s">
         <v>234</v>
@@ -3670,7 +3667,7 @@
         <v>187</v>
       </c>
       <c r="G97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H97" t="s">
         <v>234</v>
@@ -3696,7 +3693,7 @@
         <v>218</v>
       </c>
       <c r="G98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H98" t="s">
         <v>234</v>
@@ -3722,7 +3719,7 @@
         <v>219</v>
       </c>
       <c r="G99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H99" t="s">
         <v>234</v>
@@ -3774,10 +3771,10 @@
         <v>221</v>
       </c>
       <c r="G101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
